--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -2918,7 +2918,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>*6:30 am office leave time</t>
+          <t>https://maps.app.goo.gl/QfM8xR5WiwAjarGCA</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2963,7 +2963,11 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>*6:30 am office leave time</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -3005,22 +3009,9 @@
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>@ Store
-Corolla, Equip</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -3055,17 +3046,18 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>help Ashley if needed</t>
+          <t>@ Store
+Corolla, Equip</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3124,9 +3116,21 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>help Ashley if needed</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
@@ -3236,11 +3240,7 @@
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
@@ -3299,7 +3299,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3358,7 +3358,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3423,7 +3423,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>1440 HORICON ST</t>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3470,7 +3470,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/wZQq41kNMJ6VcqDe7</t>
+          <t>1440 HORICON ST</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3517,7 +3517,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>https://maps.app.goo.gl/wZQq41kNMJ6VcqDe7</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3578,7 +3578,11 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
@@ -3632,21 +3636,9 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
@@ -3705,17 +3697,17 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3764,17 +3756,17 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -3823,12 +3815,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3886,12 +3878,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3941,12 +3933,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -4020,12 +4012,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -4095,12 +4087,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4158,17 +4150,17 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>@ Store, Until 1:15</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -4217,17 +4209,17 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 1:15</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -4292,12 +4284,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4339,12 +4331,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4384,9 +4376,21 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:Y92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4777,7 +4777,11 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -4804,7 +4808,11 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -4831,7 +4839,11 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>KELLEY #62, DIXON MOBIL</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -4858,7 +4870,11 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1300 N GALENA AVE</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -4885,7 +4901,11 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -4912,7 +4932,11 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -4965,9 +4989,21 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -4992,9 +5028,22 @@
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -5019,8 +5068,16 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -5046,8 +5103,16 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -5073,8 +5138,16 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
@@ -5100,9 +5173,21 @@
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>@ Store w/ Mike</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -5122,510 +5207,6 @@
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>KELLEY #62, DIXON MOBIL</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>1300 N GALENA AVE</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>*IL Meet is      am at IL Office</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -3871,7 +3871,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -4205,7 +4205,12 @@
           <t>Qiana</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -2062,11 +2062,7 @@
           <t>Qiana</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -2207,7 +2203,8 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -2059,10 +2059,14 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -2122,12 +2126,13 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2198,13 +2203,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2278,7 +2282,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2357,7 +2361,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2436,7 +2440,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2508,21 +2512,9 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
@@ -2631,7 +2623,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2660,7 +2656,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2707,7 +2703,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>YOUNG'S DRUG STORE, MERRILL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2758,7 +2754,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>YOUNG'S DRUG STORE, MERRILL</t>
+          <t>301 E SECOND ST</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2813,7 +2809,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>301 E SECOND ST</t>
+          <t>https://goo.gl/maps/T2NHR2gMxeP2</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2856,7 +2852,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T2NHR2gMxeP2</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2899,7 +2895,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2946,7 +2942,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>YOUNG'S DRUG STORE-BRIDGE ST, WAUSAU</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2993,7 +2989,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>YOUNG'S DRUG STORE-BRIDGE ST, WAUSAU</t>
+          <t>310 E BRIDGE ST</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3032,7 +3028,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>310 E BRIDGE ST</t>
+          <t>https://goo.gl/maps/NH7BM39kiD72</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3092,7 +3088,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NH7BM39kiD72</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3159,7 +3155,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3214,7 +3210,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>YOUNG'S DRUG STORE-GRAND AVE, WAUSAU</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3276,7 +3272,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>YOUNG'S DRUG STORE-GRAND AVE, WAUSAU</t>
+          <t>2106 GRAND AVE</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3331,7 +3327,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2106 GRAND AVE</t>
+          <t>https://goo.gl/maps/Rv7Ev61QqMq</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3396,7 +3392,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Rv7Ev61QqMq</t>
+          <t>6:15 am meet for Sarah, Aivy &amp; Lori at Portage Walmart</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3453,11 +3449,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>6:15 am meet for Sarah, Aivy &amp; Lori at Portage Walmart</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3503,9 +3495,21 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Driver 1/2, Equip</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3552,19 +3556,15 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -3615,15 +3615,19 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Driver 1/2</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3668,21 +3672,9 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -3799,7 +3791,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3860,7 +3856,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS / WINTAKES</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3919,7 +3915,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>SCHIERL #52, PLOVER</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3986,7 +3982,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHENSNEY PARK</t>
+          <t>1011 POST RD</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -4065,7 +4061,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>https://goo.gl/maps/ZDK3XYbiY9zD41LN9</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4128,7 +4124,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t>*?? am IL office leave time</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4189,7 +4185,11 @@
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Jeremiah bringing equipment</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
@@ -4252,21 +4252,9 @@
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
@@ -4317,15 +4305,19 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Camry 3, Train w/ Jeremiah</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -4364,15 +4356,19 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -4415,17 +4411,17 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Until 8:15</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4458,15 +4454,20 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -4497,15 +4498,19 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -4534,9 +4539,21 @@
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -4624,7 +4641,11 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4663,7 +4684,11 @@
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4702,7 +4727,11 @@
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHENSNEY PARK</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4729,7 +4758,11 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>9915 ORLANDO ST</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -4756,7 +4789,11 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -4817,9 +4854,21 @@
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -4848,8 +4897,16 @@
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -4879,8 +4936,16 @@
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -4910,9 +4975,21 @@
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -4941,8 +5018,16 @@
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -4968,8 +5053,16 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -2256,7 +2256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>w/ Aivy</t>
+          <t>w/ Aivy Oil Change in SP</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -1246,7 +1246,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store, Equip Prius to Meinke Sun P</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y92"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,21 +4236,9 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -4351,7 +4339,11 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -4404,7 +4396,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -4447,7 +4439,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -4491,7 +4483,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
+          <t>700 NORTH LAKE AVENUE SUITE 101</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4534,7 +4526,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>700 NORTH LAKE AVENUE SUITE 101</t>
+          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -4577,7 +4569,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
+          <t>*4:45 am IL Office leave time</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -4606,11 +4598,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>*4:45 am IL Office leave time</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -4636,9 +4624,21 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
@@ -4669,17 +4669,17 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Optima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -4710,21 +4710,9 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
@@ -4785,7 +4773,11 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -4818,7 +4810,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -4849,7 +4841,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #62, DIXON MOBIL</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -4892,7 +4884,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>KELLEY #62, DIXON MOBIL</t>
+          <t>1300 N GALENA AVE</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -4931,7 +4923,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1300 N GALENA AVE</t>
+          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -4970,7 +4962,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
+          <t>*IL Meet is 5:30 am at IL Office</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -5011,11 +5003,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
@@ -5049,9 +5037,21 @@
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
@@ -5086,17 +5086,18 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -5125,20 +5126,15 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -5165,12 +5161,12 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -5200,12 +5196,12 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -5235,15 +5231,19 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>@ Store w/ Mike</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -5263,45 +5263,6 @@
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>@ Store w/ Mike</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -1024,7 +1024,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>NO RX COUNT AT THIS STORE THIS TIME!</t>
+          <t>NO RX COUNT AT THIS STORE THIS TIME!  OTC inside the RX does NOT need to be counted - If by chance there is any OTC outside the RX that normally would go into location 80920 we do need to count that under 80920</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -1121,13 +1121,7 @@
           <t>Ashley P</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1501,8 +1495,8 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van,
+          <t>Driver,
+Silver Van,
 Rx</t>
         </is>
       </c>
@@ -1734,7 +1728,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Gray Van</t>
         </is>
       </c>
@@ -1962,7 +1956,8 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,7 +1024,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>NO RX COUNT AT THIS STORE THIS TIME!  OTC inside the RX does NOT need to be counted - If by chance there is any OTC outside the RX that normally would go into location 80920 we do need to count that under 80920</t>
+          <t>NO RX COUNT AT THIS STORE THIS TIME!  OTC inside the RX does NOT need to be counted - If by chance there is any OTC</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>outside the RX that normally would go into location 80920 we do need to count that under 80920</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1133,7 +1133,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1148,7 +1153,8 @@
       <c r="O17" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Silver Van,
+Rx</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1159,18 +1165,17 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
@@ -1187,7 +1192,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1223,26 +1228,18 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>@ Store, Equip Prius to Meinke Sun P</t>
-        </is>
-      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1258,7 +1255,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1270,13 +1267,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1304,28 +1300,29 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>w/ Sarah</t>
+          <t>@ Store, Equip Prius to Meinke Sun P</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1343,7 +1340,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1355,12 +1352,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1383,27 +1380,26 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>w/ Sarah</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1419,10 +1415,16 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van,
+Rx</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1431,12 +1433,13 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1459,22 +1462,27 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1490,16 +1498,10 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van,
-Rx</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1508,62 +1510,51 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>Driver, 1/2
 Gray Van</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Rx</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1579,7 +1570,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1591,7 +1582,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1603,7 +1594,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1615,19 +1606,14 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -1651,10 +1637,15 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1663,10 +1654,15 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1675,7 +1671,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1687,14 +1683,14 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -1723,13 +1719,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1740,7 +1735,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1752,10 +1747,16 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Trainer</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1764,14 +1765,14 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -1795,7 +1796,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1811,7 +1812,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1823,13 +1824,14 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Gray Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1840,14 +1842,20 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Trainer</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -1871,12 +1879,13 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1887,10 +1896,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Trainer</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -1899,14 +1914,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1915,19 +1926,20 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Silver Van
+Supv Rx</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -1951,13 +1963,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1968,13 +1979,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1985,10 +1995,14 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -1997,20 +2011,14 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2031,21 +2039,9 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
@@ -2054,12 +2050,13 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2070,7 +2067,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2086,14 +2083,18 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2121,13 +2122,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2165,7 +2165,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2188,7 +2188,11 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -2198,7 +2202,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2214,7 +2218,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2230,7 +2234,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2241,7 +2245,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2265,7 +2269,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2277,7 +2281,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2293,7 +2297,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2309,7 +2313,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2320,7 +2324,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2344,7 +2348,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>YOUNG'S LONG TERM CARE RX, WAUSAU-72ND ST</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2356,12 +2360,13 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week, work w/ Michael</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2372,7 +2377,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2388,7 +2393,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2399,7 +2404,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2423,26 +2428,14 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>YOUNG'S LONG TERM CARE RX, WAUSAU-72ND ST</t>
+          <t>555 S 72ND AVE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
@@ -2451,7 +2444,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2467,7 +2460,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2478,7 +2471,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2502,7 +2495,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>555 S 72ND AVE</t>
+          <t>https://goo.gl/maps/wePQUkJQ4Fu</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2518,7 +2511,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2534,12 +2527,13 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week, work w/ Michael</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -2557,13 +2551,17 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wePQUkJQ4Fu</t>
+          <t>6:30 am meet for Sarah, Aivy &amp; Lori at Portage Walmart</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2573,30 +2571,19 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week, work w/ Michael</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -2610,17 +2597,13 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6:30 am meet for Sarah, Aivy &amp; Lori at Portage Walmart</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2634,7 +2617,11 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2644,14 +2631,26 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Driver 1/2, Equip</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>YOUNG'S DRUG STORE, MERRILL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2661,13 +2660,17 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2681,24 +2684,20 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>YOUNG'S DRUG STORE, MERRILL</t>
+          <t>301 E SECOND ST</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2714,7 +2713,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>ALL HARRY'S ARE NOW DC5-FINANCIALS</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2722,7 +2721,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MARIANO'S #532 +RX, GLENVIEW</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2736,20 +2735,24 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Driver 1/2</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>301 E SECOND ST</t>
+          <t>https://goo.gl/maps/T2NHR2gMxeP2</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2765,7 +2768,8 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>ALL HARRY'S ARE NOW DC5-FINANCIALS</t>
+          <t>HARRY'S MOBIL, 
+SOUTH BELOIT</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2773,7 +2777,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>MARIANO'S #532 +RX, GLENVIEW</t>
+          <t>2323 CAPITAL DR</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2785,26 +2789,14 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T2NHR2gMxeP2</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2820,7 +2812,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>HARRY'S MOBIL, SOUTH BELOIT</t>
+          <t>1403 PATE PLAZA DR</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2828,7 +2820,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>2323 CAPITAL DR</t>
+          <t>https://goo.gl/maps/ut53mE2zZpL2</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2847,7 +2839,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2863,7 +2855,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>1403 PATE PLAZA DR</t>
+          <t>https://maps.app.goo.gl/QfM8xR5WiwAjarGCA</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2871,7 +2863,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ut53mE2zZpL2</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2884,13 +2876,17 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>YOUNG'S DRUG STORE-BRIDGE ST, WAUSAU</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2906,7 +2902,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/QfM8xR5WiwAjarGCA</t>
+          <t>*6:30 am office leave time</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2914,7 +2910,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>SET UP ON REG #2</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2929,7 +2925,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2937,7 +2933,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>YOUNG'S DRUG STORE-BRIDGE ST, WAUSAU</t>
+          <t>310 E BRIDGE ST</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2951,19 +2947,11 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>*6:30 am office leave time</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #2</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2976,7 +2964,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION ST JOSEPH RX-CHAMBERS #1103, MILW</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2984,7 +2972,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>310 E BRIDGE ST</t>
+          <t>https://goo.gl/maps/NH7BM39kiD72</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2997,13 +2985,37 @@
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3015,7 +3027,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ASCENSION ST JOSEPH RX-CHAMBERS #1103, MILW</t>
+          <t>5000 W CHAMBERS  ROOM 1801</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3023,7 +3035,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NH7BM39kiD72</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3034,36 +3046,32 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store
-Corolla, Equip</t>
+          <t>@ Store,
+Corolla</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3075,7 +3083,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5000 W CHAMBERS  ROOM 1801</t>
+          <t>ENTER THROUGH MATERNITY(3RD LEVEL) VISITOR ENTRY. RX IS IN THE LOBBY.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3083,7 +3091,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3104,30 +3112,18 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>help Ashley if needed</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3142,7 +3138,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ENTER THROUGH MATERNITY(3RD LEVEL) VISITOR ENTRY. RX IS IN THE LOBBY.</t>
+          <t>https://goo.gl/maps/gRgCFNfwBUy</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3150,7 +3146,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>YOUNG'S DRUG STORE-GRAND AVE, WAUSAU</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3177,15 +3173,21 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Rx</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3197,7 +3199,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gRgCFNfwBUy</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3205,7 +3207,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>YOUNG'S DRUG STORE-GRAND AVE, WAUSAU</t>
+          <t>2106 GRAND AVE</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3217,37 +3219,30 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Rx</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3259,7 +3254,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3267,7 +3262,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2106 GRAND AVE</t>
+          <t>https://goo.gl/maps/Rv7Ev61QqMq</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3279,30 +3274,40 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store w/ Lori</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3314,7 +3319,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION ST FRANCIS RX #1107, MILWAUKEE</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3322,7 +3327,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Rv7Ev61QqMq</t>
+          <t>6:15 am meet for Sarah, Aivy &amp; Lori at Portage Walmart</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3334,40 +3339,34 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t xml:space="preserve">@ Store   </t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3379,17 +3378,13 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ASCENSION ST FRANCIS RX #1107, MILWAUKEE</t>
+          <t>3237 S 16TH ST    ROOM 121</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>6:15 am meet for Sarah, Aivy &amp; Lori at Portage Walmart</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -3399,34 +3394,39 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store   </t>
+          <t>Driver,
+Camry 3</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+          <t>1440 HORICON ST</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3438,14 +3438,26 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3237 S 16TH ST    ROOM 121</t>
+          <t>https://goo.gl/maps/ckXW882eGXp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Driver 1/2, Equip</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -3454,19 +3466,19 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>1440 HORICON ST</t>
+          <t>https://maps.app.goo.gl/wZQq41kNMJ6VcqDe7</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3485,26 +3497,22 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ckXW882eGXp</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3513,19 +3521,19 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/wZQq41kNMJ6VcqDe7</t>
+          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3544,22 +3552,26 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Driver 1/2</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -3570,26 +3582,23 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3603,26 +3612,14 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION RX #1105, FRANKLIN-27TH ST</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3632,18 +3629,30 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3662,7 +3671,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ASCENSION RX #1105, FRANKLIN-27TH ST</t>
+          <t>10101 S 27TH ST    ROOM 1005</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3681,28 +3690,28 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3721,13 +3730,17 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10101 S 27TH ST    ROOM 1005</t>
+          <t>https://goo.gl/maps/fQ4V9q61NUS2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3740,28 +3753,28 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3780,7 +3793,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fQ4V9q61NUS2</t>
+          <t>*4:30 am IL Office leave time</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3788,7 +3801,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS / WINTAKES</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3803,12 +3816,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3819,12 +3832,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3841,17 +3854,13 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>*4:30 am IL Office leave time</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>MODAS / WINTAKES</t>
+          <t>SCHIERL #52, PLOVER</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3866,12 +3875,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3882,12 +3891,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3903,14 +3912,26 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>SCHIERL #52, PLOVER</t>
+          <t>1011 POST RD</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3921,12 +3942,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3937,12 +3958,12 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3960,24 +3981,24 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Camry 3</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1011 POST RD</t>
+          <t>https://goo.gl/maps/ZDK3XYbiY9zD41LN9</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -4000,12 +4021,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -4016,17 +4037,18 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week, work w/ Ian</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -4039,24 +4061,24 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZDK3XYbiY9zD41LN9</t>
+          <t>*4:30 am IL office leave time</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4075,12 +4097,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4102,12 +4124,12 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4119,7 +4141,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>*?? am IL office leave time</t>
+          <t>Jeremiah bringing equipment</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4131,24 +4153,29 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 1:15</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -4163,28 +4190,12 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Jeremiah bringing equipment</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
@@ -4194,29 +4205,24 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>@ Store, Until 1:15</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -4235,9 +4241,21 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Camry 3, Train w/ Jeremiah</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
@@ -4257,12 +4275,12 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4283,22 +4301,26 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Camry 3, Train w/ Jeremiah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
@@ -4308,12 +4330,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4336,19 +4358,19 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4361,21 +4383,9 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -4391,24 +4401,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Equip</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4434,25 +4445,24 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
+          <t>700 NORTH LAKE AVENUE SUITE 101</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>@ Store,
-Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4478,19 +4488,19 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>700 NORTH LAKE AVENUE SUITE 101</t>
+          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4521,26 +4531,14 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
+          <t>*4:45 am IL Office leave time</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -4562,11 +4560,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>*4:45 am IL Office leave time</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -4592,12 +4586,28 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4621,24 +4631,24 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Optima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4662,26 +4672,14 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHENSNEY PARK</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4712,7 +4710,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHENSNEY PARK</t>
+          <t>9915 ORLANDO ST</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4737,13 +4735,17 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4770,17 +4772,13 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -4805,14 +4803,26 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #62, DIXON MOBIL</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -4836,26 +4846,22 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>KELLEY #62, DIXON MOBIL</t>
+          <t>1300 N GALENA AVE</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -4879,19 +4885,19 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1300 N GALENA AVE</t>
+          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4918,22 +4924,26 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
+          <t>*IL Meet is 5:30 am at IL Office</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
@@ -4955,28 +4965,20 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -4997,18 +4999,30 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5034,30 +5048,23 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -5081,20 +5088,15 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -5121,12 +5123,12 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -5156,12 +5158,12 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -5191,15 +5193,19 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>@ Store w/ Mike</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -5219,45 +5225,6 @@
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>@ Store w/ Mike</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5186,45 +5186,6 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>@ Store w/ Mike</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -1914,10 +1914,14 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1995,7 +1999,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2067,7 +2071,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2138,7 +2142,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2218,7 +2222,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2297,7 +2301,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2377,7 +2381,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2444,7 +2448,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2511,12 +2515,13 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week, work w/ Michael</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
@@ -2564,22 +2569,9 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>@ Store,
-2nd week, work w/ Michael</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -2656,7 +2648,11 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2705,7 +2701,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2760,7 +2756,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION MERCY INPATIENT HOSPITAL, OSHKOSH</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2804,7 +2800,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>ASCENSION MERCY INPATIENT HOSPITAL, OSHKOSH</t>
+          <t>500 S OAKWOOD RD</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2847,7 +2843,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>500 S OAKWOOD RD</t>
+          <t>https://goo.gl/maps/WSUq89zmyur</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2894,7 +2890,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WSUq89zmyur</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2941,7 +2937,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2978,11 +2974,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
@@ -3040,9 +3032,21 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3098,17 +3102,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -3153,19 +3157,15 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>@ Store w/ Sarah</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3214,15 +3214,19 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store w/ Lori</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -3269,17 +3273,17 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t xml:space="preserve">@ Store   </t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3334,17 +3338,18 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store   </t>
+          <t>Driver,
+Camry 3</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3387,22 +3392,9 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3515,7 +3507,11 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3576,7 +3572,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3624,7 +3620,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3683,7 +3679,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
+          <t>1730 S WEST ST</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3746,7 +3742,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>1730 S WEST ST</t>
+          <t>https://goo.gl/maps/2ZXywmPJqto</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3809,7 +3805,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2ZXywmPJqto</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3866,11 +3862,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
@@ -3936,9 +3928,21 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
@@ -4005,19 +4009,15 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
@@ -4085,15 +4085,20 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
@@ -4148,20 +4153,15 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
@@ -4200,12 +4200,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4257,21 +4257,9 @@
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -2142,7 +2142,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2448,12 +2448,13 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week, work w/ Michael</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
@@ -2508,22 +2509,9 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>@ Store,
-2nd week, work w/ Michael</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2601,7 +2589,11 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2650,7 +2642,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2701,7 +2693,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION MERCY INPATIENT HOSPITAL, OSHKOSH</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2756,7 +2748,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>ASCENSION MERCY INPATIENT HOSPITAL, OSHKOSH</t>
+          <t>500 S OAKWOOD RD</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2800,7 +2792,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>500 S OAKWOOD RD</t>
+          <t>https://goo.gl/maps/WSUq89zmyur</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2843,7 +2835,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WSUq89zmyur</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2890,7 +2882,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2935,11 +2927,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -2973,9 +2961,21 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3034,17 +3034,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3102,19 +3102,15 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store w/ Sarah</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3157,15 +3153,19 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>@ Store w/ Lori</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3214,17 +3214,17 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t xml:space="preserve">@ Store   </t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3273,17 +3273,18 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store   </t>
+          <t>Driver,
+Camry 3</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3336,22 +3337,9 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
@@ -3452,7 +3440,11 @@
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3509,7 +3501,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3572,7 +3564,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3620,7 +3612,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
+          <t>1730 S WEST ST</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3679,7 +3671,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1730 S WEST ST</t>
+          <t>https://goo.gl/maps/2ZXywmPJqto</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3742,7 +3734,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2ZXywmPJqto</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3803,11 +3795,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
@@ -3861,9 +3849,21 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
@@ -3930,19 +3930,15 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
@@ -4009,15 +4005,20 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
@@ -4085,20 +4086,15 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
@@ -4153,12 +4149,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4198,16 +4194,8 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -2481,7 +2481,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -2530,9 +2530,21 @@
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2565,9 +2577,21 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2600,13 +2624,21 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2656,11 +2688,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2707,11 +2735,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>MARIANO'S #532 +RX, GLENVIEW</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2765,7 +2789,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>2323 CAPITAL DR</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2808,7 +2832,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ut53mE2zZpL2</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2851,7 +2875,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>MARIANO'S #532 +RX, GLENVIEW</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2898,7 +2922,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>SET UP ON REG #2</t>
+          <t>2323 CAPITAL DR</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2935,7 +2959,11 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ut53mE2zZpL2</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2993,21 +3021,13 @@
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>*IL Meet is 4:30 am at IL Office</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3065,14 +3085,10 @@
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>SET UP ON REG #2</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3116,16 +3132,8 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3173,19 +3181,17 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van,
-Rx</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3238,12 +3244,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3298,21 +3304,15 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3351,15 +3351,21 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Rx</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3394,19 +3400,15 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3457,17 +3459,19 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3516,19 +3520,15 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3575,18 +3575,17 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3635,12 +3634,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3694,12 +3693,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3757,17 +3756,18 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3816,12 +3816,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3883,12 +3883,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3958,12 +3958,12 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -4038,18 +4038,17 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd week, work w/ Ian</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -4112,9 +4111,21 @@
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -4175,9 +4186,21 @@
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4214,9 +4237,22 @@
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>@ Store,
+2nd week, work w/ Ian</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>

--- a/11-10-24 to 11-16-24 Madison Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Madison Schedule.xlsx
@@ -3766,8 +3766,7 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -4043,7 +4042,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -4118,7 +4117,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -4186,21 +4185,9 @@
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4237,22 +4224,9 @@
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>@ Store,
-2nd week, work w/ Ian</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
